--- a/src/test/resources/InsertExample.xlsx
+++ b/src/test/resources/InsertExample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>NAME</t>
   </si>
@@ -350,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF9469-E0FD-4718-B0B2-4BE956E2159D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
@@ -364,18 +364,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>3</v>
       </c>
     </row>
